--- a/colonnes_bdd_traffic.xlsx
+++ b/colonnes_bdd_traffic.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/timothee/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5C22D700-F89E-3241-A93A-CC5FF3D7BD45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B4095AE-4599-174C-939B-47A8CC1C2B5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15820" xr2:uid="{0FA5BDAC-DBD2-4F40-AFE3-F143F205FB0D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="95">
   <si>
     <t>champ</t>
   </si>
@@ -261,6 +261,66 @@
   </si>
   <si>
     <t xml:space="preserve">ASP APT </t>
+  </si>
+  <si>
+    <t>année et mois (ex : 201801 pour janvier 2018)</t>
+  </si>
+  <si>
+    <t>MET_INTER_MET</t>
+  </si>
+  <si>
+    <t>Départ Métropole vers destinations intérieures Métropole</t>
+  </si>
+  <si>
+    <t>MET_INTER_OM</t>
+  </si>
+  <si>
+    <t>Départ Métropole vers Outremer</t>
+  </si>
+  <si>
+    <t>MET_INTER_TOT</t>
+  </si>
+  <si>
+    <t>Total Départ Métropole vers toutes destinations intérieures</t>
+  </si>
+  <si>
+    <t>MET_INTAL_MC</t>
+  </si>
+  <si>
+    <t>Départ Métropole vers toutes destinations à l'International Moyen-Courrier</t>
+  </si>
+  <si>
+    <t>MET_INTAL_LC</t>
+  </si>
+  <si>
+    <t>Départ Métropole vers toutes destinations à l'International Long-Courrier</t>
+  </si>
+  <si>
+    <t>MET_INTAL_TOT</t>
+  </si>
+  <si>
+    <t>Total départ Métropole vers toutes destinations à l'International</t>
+  </si>
+  <si>
+    <t>MET_ENS</t>
+  </si>
+  <si>
+    <t>Ensemble départ Métropole vers toutes destinations</t>
+  </si>
+  <si>
+    <t>DOM_ENS</t>
+  </si>
+  <si>
+    <t>Ensemble départ DOM vers toutes destinations</t>
+  </si>
+  <si>
+    <t>FRA_ENS</t>
+  </si>
+  <si>
+    <t>Ensemble départ France (métropole + DOM) vers toutes destinations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indice des prix </t>
   </si>
 </sst>
 </file>
@@ -632,10 +692,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C346635D-99E9-A943-B7C3-0F200E02A12A}">
-  <dimension ref="A1:B44"/>
+  <dimension ref="A1:B57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -963,6 +1023,91 @@
         <v>73</v>
       </c>
     </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>2</v>
+      </c>
+      <c r="B48" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>76</v>
+      </c>
+      <c r="B49" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>78</v>
+      </c>
+      <c r="B50" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>80</v>
+      </c>
+      <c r="B51" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>82</v>
+      </c>
+      <c r="B52" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>84</v>
+      </c>
+      <c r="B53" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>86</v>
+      </c>
+      <c r="B54" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>88</v>
+      </c>
+      <c r="B55" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>90</v>
+      </c>
+      <c r="B56" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>92</v>
+      </c>
+      <c r="B57" t="s">
+        <v>93</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
